--- a/APM files/135583412/135583412 IMPORT 4 EQC - deactivation.xlsx
+++ b/APM files/135583412/135583412 IMPORT 4 EQC - deactivation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/135583412/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32890E0-1180-354A-ACC5-B8969ECD0C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65E0974-7272-D944-A48C-25C110A62B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -300,6 +300,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -655,7 +656,7 @@
   <dimension ref="A1:H526"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
